--- a/linkml/source_tables/INQUIRE/Field_list.xlsx
+++ b/linkml/source_tables/INQUIRE/Field_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vitoresearch-my.sharepoint.com/personal/dirk_devriendt_ext_vito_be/Documents/Documents/git/parco-hbm/linkml/source_tables/INQUIRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_BEA61AB9E00576B93B29232DF631B5CA70DAC609" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DFA53BA-B5FB-4912-9247-4D63BC4755AC}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_BEA61AB9E00576B93B29232DF631B5CA70DAC609" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF23E04F-BBCD-441E-B81E-B9F4A78D77C2}"/>
   <bookViews>
-    <workbookView xWindow="-34185" yWindow="-10110" windowWidth="31305" windowHeight="18135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26220" yWindow="-2265" windowWidth="23640" windowHeight="17430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qryFields" sheetId="1" r:id="rId1"/>
@@ -1666,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8493,8 +8493,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>